--- a/others/原始数据-霍尔效应.xlsx
+++ b/others/原始数据-霍尔效应.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markyangkp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\NoteBook\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C8373C-1154-47BB-BB94-550AA17C6C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C661733-8443-42A4-BA65-B0CBD358F0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>原始数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,13 +76,43 @@
 霍尔电压 U/mV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>k=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rh=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作图法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uh1=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -93,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,11 +222,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -194,17 +257,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,6 +270,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -229,6 +300,1090 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>U-I</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11317588277151594"/>
+          <c:y val="0.17160575112725499"/>
+          <c:w val="0.84511419632341545"/>
+          <c:h val="0.61144048204714685"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>字段 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0374999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0574999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-197B-4B4D-A875-C77E067C25FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2011848191"/>
+        <c:axId val="2012952927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2011848191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Is</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2012952927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2012952927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Uh</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011848191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,8 +2572,8 @@
       <xdr:rowOff>308610</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206467" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="文本框 9">
@@ -1500,7 +2655,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="文本框 9">
@@ -2145,6 +3300,42 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>62006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603922</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>115795</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18" descr="图表类型: 折线图。 “字段 6”&#10;&#10;已自动生成说明">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68DB489-ECDF-03B1-4220-53C76F57057B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2411,30 +3602,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.08203125" customWidth="1"/>
-    <col min="9" max="9" width="23.58203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:34" ht="49.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2442,8 +3634,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="8"/>
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2451,7 +3642,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="10"/>
+      <c r="N2" s="8"/>
       <c r="P2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2510,7 +3701,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1.5</v>
       </c>
@@ -2526,11 +3717,10 @@
       <c r="E3" s="5">
         <v>-4.03</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <f>(-1*B3+C3+D3+E3*-1)/4</f>
         <v>3.04</v>
       </c>
-      <c r="G3" s="9"/>
       <c r="I3" s="3">
         <v>100</v>
       </c>
@@ -2546,7 +3736,7 @@
       <c r="M3" s="5">
         <v>-3.7</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="11">
         <f>(ABS(J3)+ABS(K3)+ABS(L3)+ABS(M3))/4</f>
         <v>2.35</v>
       </c>
@@ -2606,7 +3796,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2622,11 +3812,11 @@
       <c r="E4" s="5">
         <v>-5.37</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <f t="shared" ref="F4:F7" si="0">(-1*B4+C4+D4+E4*-1)/4</f>
         <v>4.0449999999999999</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="2"/>
       <c r="I4" s="3">
         <v>200</v>
       </c>
@@ -2642,67 +3832,67 @@
       <c r="M4" s="5">
         <v>-5.1100000000000003</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <f t="shared" ref="N4:N7" si="1">(ABS(J4)+ABS(K4)+ABS(L4)+ABS(M4))/4</f>
         <v>2.8150000000000004</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>4.8099999999999996</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>4.8</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <v>4.79</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <v>4.78</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>4.76</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <v>4.71</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="7">
         <v>4.6399999999999997</v>
       </c>
-      <c r="X4" s="8">
+      <c r="X4" s="7">
         <v>4.58</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="7">
         <v>4.49</v>
       </c>
-      <c r="Z4" s="8">
+      <c r="Z4" s="7">
         <v>4.3600000000000003</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="7">
         <v>4.17</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="7">
         <v>3.92</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <v>3.61</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="7">
         <v>3.25</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="7">
         <v>2.91</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <v>2.64</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="7">
         <v>2.27</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2.5</v>
       </c>
@@ -2718,11 +3908,11 @@
       <c r="E5" s="5">
         <v>-6.68</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>5.0374999999999996</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="2"/>
       <c r="I5" s="3">
         <v>300</v>
       </c>
@@ -2738,67 +3928,67 @@
       <c r="M5" s="5">
         <v>-6.53</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <f t="shared" si="1"/>
         <v>4.2300000000000004</v>
       </c>
       <c r="P5" s="6"/>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>1.36</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>1.35</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <v>1.34</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <v>1.32</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <v>1.3</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <v>1.26</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="7">
         <v>1.18</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="7">
         <v>1.03</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="7">
         <v>0.9</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="7">
         <v>0.71</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="7">
         <v>0.47</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <v>0.16</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="7">
         <v>-0.2</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <v>-0.53</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <v>-0.8</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="7">
         <v>-1.01</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="7">
         <v>-1.1599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2814,11 +4004,11 @@
       <c r="E6" s="5">
         <v>-8.0299999999999994</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>6.0574999999999992</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="2"/>
       <c r="I6" s="3">
         <v>400</v>
       </c>
@@ -2834,67 +4024,67 @@
       <c r="M6" s="5">
         <v>-7.94</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="11">
         <f t="shared" si="1"/>
         <v>5.6400000000000006</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="12">
+      <c r="Q6" s="9">
         <v>-4.58</v>
       </c>
-      <c r="R6" s="12">
+      <c r="R6" s="9">
         <v>-4.57</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="9">
         <v>-4.5599999999999996</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="9">
         <v>-4.54</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="9">
         <v>-4.5199999999999996</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="9">
         <v>-4.4800000000000004</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="9">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="X6" s="12">
+      <c r="X6" s="9">
         <v>-4.34</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="9">
         <v>-4.25</v>
       </c>
-      <c r="Z6" s="12">
+      <c r="Z6" s="9">
         <v>-4.12</v>
       </c>
-      <c r="AA6" s="12">
+      <c r="AA6" s="9">
         <v>-3.94</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="9">
         <v>-3.69</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="9">
         <v>-3.37</v>
       </c>
-      <c r="AD6" s="12">
+      <c r="AD6" s="9">
         <v>-3.01</v>
       </c>
-      <c r="AE6" s="12">
+      <c r="AE6" s="9">
         <v>-2.68</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="9">
         <v>-2.41</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="9">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="AH6" s="12">
+      <c r="AH6" s="9">
         <v>-2.04</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3.5</v>
       </c>
@@ -2910,11 +4100,11 @@
       <c r="E7" s="5">
         <v>-9.3699999999999992</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>7.07</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="2"/>
       <c r="I7" s="3">
         <v>500</v>
       </c>
@@ -2930,81 +4120,163 @@
       <c r="M7" s="5">
         <v>-9.35</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="11">
         <f t="shared" si="1"/>
         <v>7.0500000000000007</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="10">
         <f>(ABS(Q3)+ABS(Q4)+ABS(Q5)+ABS(Q6))/4</f>
         <v>2.9699999999999998</v>
       </c>
-      <c r="R7" s="13">
-        <f t="shared" ref="R7:AH7" si="2">(ABS(R3)+ABS(R4)+ABS(R5)+ABS(R6))/4</f>
+      <c r="R7" s="10">
+        <f t="shared" ref="R7:AG7" si="2">(ABS(R3)+ABS(R4)+ABS(R5)+ABS(R6))/4</f>
         <v>2.96</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="10">
         <f t="shared" si="2"/>
         <v>2.95</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="10">
         <f t="shared" si="2"/>
         <v>2.9325000000000001</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="10">
         <f t="shared" si="2"/>
         <v>2.91</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="10">
         <f t="shared" si="2"/>
         <v>2.8675000000000002</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="10">
         <f t="shared" si="2"/>
         <v>2.7925</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="10">
         <f t="shared" si="2"/>
         <v>2.73</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="10">
         <f t="shared" si="2"/>
         <v>2.64</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="10">
         <f t="shared" si="2"/>
         <v>2.5100000000000002</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="10">
         <f t="shared" si="2"/>
         <v>2.3250000000000002</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="10">
         <f t="shared" si="2"/>
         <v>2.0749999999999997</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="10">
         <f t="shared" si="2"/>
         <v>1.8075000000000001</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="10">
         <f t="shared" si="2"/>
         <v>1.7250000000000001</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="10">
         <f t="shared" si="2"/>
         <v>1.7250000000000001</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="10">
         <f t="shared" si="2"/>
         <v>1.7225000000000001</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="AG7" s="10">
         <f t="shared" si="2"/>
         <v>1.72</v>
       </c>
-      <c r="AH7" s="13">
+      <c r="AH7" s="10">
         <f>(ABS(AH3)+ABS(AH4)+ABS(AH5)+ABS(AH6))/4</f>
         <v>1.7150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <f>SUM(A3:A7)/5</f>
+        <v>2.5</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15">
+        <f>SUM(F3:F7)/5</f>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <f>(6.52-4.54)/(3.25-2.25)</f>
+        <v>1.9799999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <f>(B27*0.2*10^-3)/(0.5*2.25*10^-2)</f>
+        <v>3.5199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <f>8/(3*3.1415*B28*1.6*10^-19)</f>
+        <v>1.507193533295714E+20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" cm="1">
+        <f t="array" ref="B33">(SUM((F3:F7*A3:A7))-5*A8*F8)/(SUM(A3:A7*A3:A7)-5*A8^2)</f>
+        <v>2.0144999999999982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <f>F8-B33*A8</f>
+        <v>1.375000000000437E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="17">
+        <f>(B33*0.2*10^-3)/(0.5*2.25*10^-2)</f>
+        <v>3.5813333333333301E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="18">
+        <f>8/(3*3.1415*B35*1.6*10^-19)</f>
+        <v>1.4813815814969056E+20</v>
       </c>
     </row>
   </sheetData>
